--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blog\202212_最小二乗法\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blog\202212_最小二乗法（単回帰）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6C99A9-AA7B-47E2-9781-C2F12821B7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1195B05-777E-4116-A3EA-AB2B45E89849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,6 +109,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>線形回帰（単回帰）をした時の結果</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -122,12 +153,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -149,7 +177,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -224,8 +252,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.3483608370312772E-2"/>
-                  <c:y val="0.26966316710411198"/>
+                  <c:x val="4.5485089401704697E-2"/>
+                  <c:y val="0.36541277026866459"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -241,12 +269,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -260,7 +285,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$122</c:f>
+              <c:f>Sheet1!$A$2:$A$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
@@ -629,7 +654,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$122</c:f>
+              <c:f>Sheet1!$B$2:$B$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
@@ -1018,23 +1043,66 @@
         <c:axId val="366278623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>X</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1043,10 +1111,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1059,10 +1124,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1080,23 +1142,76 @@
         <c:axId val="366279871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Y</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4710133428687209E-2"/>
+              <c:y val="0.4643884739516011"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1105,10 +1220,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1121,10 +1233,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1141,7 +1250,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1162,12 +1273,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1751,15 +1857,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>624047</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>194316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2050,979 +2156,979 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G2:H122"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H122"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="7:8">
-      <c r="G2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="7:8">
-      <c r="G3">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>65</v>
       </c>
-      <c r="H3">
+      <c r="B2">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="7:8">
-      <c r="G4">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>61</v>
       </c>
-      <c r="H4">
+      <c r="B3">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="7:8">
-      <c r="G5">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>81</v>
       </c>
-      <c r="H5">
+      <c r="B4">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="7:8">
-      <c r="G6">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>88</v>
       </c>
-      <c r="H6">
+      <c r="B5">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="7:8">
-      <c r="G7">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>69</v>
       </c>
-      <c r="H7">
+      <c r="B6">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="7:8">
-      <c r="G8">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>89</v>
       </c>
-      <c r="H8">
+      <c r="B7">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="7:8">
-      <c r="G9">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>55</v>
       </c>
-      <c r="H9">
+      <c r="B8">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="7:8">
-      <c r="G10">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>84</v>
       </c>
-      <c r="H10">
+      <c r="B9">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="7:8">
-      <c r="G11">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>86</v>
       </c>
-      <c r="H11">
+      <c r="B10">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="7:8">
-      <c r="G12">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>84</v>
       </c>
-      <c r="H12">
+      <c r="B11">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="7:8">
-      <c r="G13">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>71</v>
       </c>
-      <c r="H13">
+      <c r="B12">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="7:8">
-      <c r="G14">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>81</v>
       </c>
-      <c r="H14">
+      <c r="B13">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="7:8">
-      <c r="G15">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>84</v>
       </c>
-      <c r="H15">
+      <c r="B14">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="7:8">
-      <c r="G16">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>81</v>
       </c>
-      <c r="H16">
+      <c r="B15">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="7:8">
-      <c r="G17">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>78</v>
       </c>
-      <c r="H17">
+      <c r="B16">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="7:8">
-      <c r="G18">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>67</v>
       </c>
-      <c r="H18">
+      <c r="B17">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="7:8">
-      <c r="G19">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>96</v>
       </c>
-      <c r="H19">
+      <c r="B18">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="7:8">
-      <c r="G20">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>66</v>
       </c>
-      <c r="H20">
+      <c r="B19">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="7:8">
-      <c r="G21">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>73</v>
       </c>
-      <c r="H21">
+      <c r="B20">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="7:8">
-      <c r="G22">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>75</v>
       </c>
-      <c r="H22">
+      <c r="B21">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="7:8">
-      <c r="G23">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>59</v>
       </c>
-      <c r="H23">
+      <c r="B22">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="7:8">
-      <c r="G24">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>71</v>
       </c>
-      <c r="H24">
+      <c r="B23">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="7:8">
-      <c r="G25">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>69</v>
       </c>
-      <c r="H25">
+      <c r="B24">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="7:8">
-      <c r="G26">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>63</v>
       </c>
-      <c r="H26">
+      <c r="B25">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="7:8">
-      <c r="G27">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>79</v>
       </c>
-      <c r="H27">
+      <c r="B26">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="7:8">
-      <c r="G28">
+    <row r="27" spans="1:2">
+      <c r="A27">
         <v>76</v>
       </c>
-      <c r="H28">
+      <c r="B27">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="7:8">
-      <c r="G29">
+    <row r="28" spans="1:2">
+      <c r="A28">
         <v>63</v>
       </c>
-      <c r="H29">
+      <c r="B28">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="7:8">
-      <c r="G30">
+    <row r="29" spans="1:2">
+      <c r="A29">
         <v>85</v>
       </c>
-      <c r="H30">
+      <c r="B29">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="7:8">
-      <c r="G31">
+    <row r="30" spans="1:2">
+      <c r="A30">
         <v>87</v>
       </c>
-      <c r="H31">
+      <c r="B30">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="7:8">
-      <c r="G32">
+    <row r="31" spans="1:2">
+      <c r="A31">
         <v>88</v>
       </c>
-      <c r="H32">
+      <c r="B31">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="7:8">
-      <c r="G33">
+    <row r="32" spans="1:2">
+      <c r="A32">
         <v>80</v>
       </c>
-      <c r="H33">
+      <c r="B32">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="7:8">
-      <c r="G34">
+    <row r="33" spans="1:2">
+      <c r="A33">
         <v>71</v>
       </c>
-      <c r="H34">
+      <c r="B33">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="7:8">
-      <c r="G35">
+    <row r="34" spans="1:2">
+      <c r="A34">
         <v>65</v>
       </c>
-      <c r="H35">
+      <c r="B34">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="7:8">
-      <c r="G36">
+    <row r="35" spans="1:2">
+      <c r="A35">
         <v>84</v>
       </c>
-      <c r="H36">
+      <c r="B35">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="7:8">
-      <c r="G37">
+    <row r="36" spans="1:2">
+      <c r="A36">
         <v>71</v>
       </c>
-      <c r="H37">
+      <c r="B36">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="7:8">
-      <c r="G38">
+    <row r="37" spans="1:2">
+      <c r="A37">
         <v>75</v>
       </c>
-      <c r="H38">
+      <c r="B37">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="7:8">
-      <c r="G39">
+    <row r="38" spans="1:2">
+      <c r="A38">
         <v>81</v>
       </c>
-      <c r="H39">
+      <c r="B38">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="7:8">
-      <c r="G40">
+    <row r="39" spans="1:2">
+      <c r="A39">
         <v>79</v>
       </c>
-      <c r="H40">
+      <c r="B39">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="7:8">
-      <c r="G41">
+    <row r="40" spans="1:2">
+      <c r="A40">
         <v>64</v>
       </c>
-      <c r="H41">
+      <c r="B40">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="7:8">
-      <c r="G42">
+    <row r="41" spans="1:2">
+      <c r="A41">
         <v>65</v>
       </c>
-      <c r="H42">
+      <c r="B41">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="7:8">
-      <c r="G43">
+    <row r="42" spans="1:2">
+      <c r="A42">
         <v>84</v>
       </c>
-      <c r="H43">
+      <c r="B42">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="7:8">
-      <c r="G44">
+    <row r="43" spans="1:2">
+      <c r="A43">
         <v>77</v>
       </c>
-      <c r="H44">
+      <c r="B43">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="7:8">
-      <c r="G45">
+    <row r="44" spans="1:2">
+      <c r="A44">
         <v>70</v>
       </c>
-      <c r="H45">
+      <c r="B44">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="7:8">
-      <c r="G46">
+    <row r="45" spans="1:2">
+      <c r="A45">
         <v>75</v>
       </c>
-      <c r="H46">
+      <c r="B45">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="7:8">
-      <c r="G47">
+    <row r="46" spans="1:2">
+      <c r="A46">
         <v>84</v>
       </c>
-      <c r="H47">
+      <c r="B46">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="7:8">
-      <c r="G48">
+    <row r="47" spans="1:2">
+      <c r="A47">
         <v>75</v>
       </c>
-      <c r="H48">
+      <c r="B47">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="7:8">
-      <c r="G49">
+    <row r="48" spans="1:2">
+      <c r="A48">
         <v>73</v>
       </c>
-      <c r="H49">
+      <c r="B48">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="7:8">
-      <c r="G50">
+    <row r="49" spans="1:2">
+      <c r="A49">
         <v>92</v>
       </c>
-      <c r="H50">
+      <c r="B49">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="7:8">
-      <c r="G51">
+    <row r="50" spans="1:2">
+      <c r="A50">
         <v>90</v>
       </c>
-      <c r="H51">
+      <c r="B50">
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="7:8">
-      <c r="G52">
+    <row r="51" spans="1:2">
+      <c r="A51">
         <v>79</v>
       </c>
-      <c r="H52">
+      <c r="B51">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="7:8">
-      <c r="G53">
+    <row r="52" spans="1:2">
+      <c r="A52">
         <v>80</v>
       </c>
-      <c r="H53">
+      <c r="B52">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="7:8">
-      <c r="G54">
+    <row r="53" spans="1:2">
+      <c r="A53">
         <v>71</v>
       </c>
-      <c r="H54">
+      <c r="B53">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="7:8">
-      <c r="G55">
+    <row r="54" spans="1:2">
+      <c r="A54">
         <v>73</v>
       </c>
-      <c r="H55">
+      <c r="B54">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="7:8">
-      <c r="G56">
+    <row r="55" spans="1:2">
+      <c r="A55">
         <v>71</v>
       </c>
-      <c r="H56">
+      <c r="B55">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="7:8">
-      <c r="G57">
+    <row r="56" spans="1:2">
+      <c r="A56">
         <v>58</v>
       </c>
-      <c r="H57">
+      <c r="B56">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="7:8">
-      <c r="G58">
+    <row r="57" spans="1:2">
+      <c r="A57">
         <v>79</v>
       </c>
-      <c r="H58">
+      <c r="B57">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="7:8">
-      <c r="G59">
+    <row r="58" spans="1:2">
+      <c r="A58">
         <v>73</v>
       </c>
-      <c r="H59">
+      <c r="B58">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="7:8">
-      <c r="G60">
+    <row r="59" spans="1:2">
+      <c r="A59">
         <v>64</v>
       </c>
-      <c r="H60">
+      <c r="B59">
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="7:8">
-      <c r="G61">
+    <row r="60" spans="1:2">
+      <c r="A60">
         <v>77</v>
       </c>
-      <c r="H61">
+      <c r="B60">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="7:8">
-      <c r="G62">
+    <row r="61" spans="1:2">
+      <c r="A61">
         <v>82</v>
       </c>
-      <c r="H62">
+      <c r="B61">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="7:8">
-      <c r="G63">
+    <row r="62" spans="1:2">
+      <c r="A62">
         <v>81</v>
       </c>
-      <c r="H63">
+      <c r="B62">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="7:8">
-      <c r="G64">
+    <row r="63" spans="1:2">
+      <c r="A63">
         <v>59</v>
       </c>
-      <c r="H64">
+      <c r="B63">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="7:8">
-      <c r="G65">
+    <row r="64" spans="1:2">
+      <c r="A64">
         <v>54</v>
       </c>
-      <c r="H65">
+      <c r="B64">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="7:8">
-      <c r="G66">
+    <row r="65" spans="1:2">
+      <c r="A65">
         <v>82</v>
       </c>
-      <c r="H66">
+      <c r="B65">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="7:8">
-      <c r="G67">
+    <row r="66" spans="1:2">
+      <c r="A66">
         <v>57</v>
       </c>
-      <c r="H67">
+      <c r="B66">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="7:8">
-      <c r="G68">
+    <row r="67" spans="1:2">
+      <c r="A67">
         <v>79</v>
       </c>
-      <c r="H68">
+      <c r="B67">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="7:8">
-      <c r="G69">
+    <row r="68" spans="1:2">
+      <c r="A68">
         <v>79</v>
       </c>
-      <c r="H69">
+      <c r="B68">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="7:8">
-      <c r="G70">
+    <row r="69" spans="1:2">
+      <c r="A69">
         <v>73</v>
       </c>
-      <c r="H70">
+      <c r="B69">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="7:8">
-      <c r="G71">
+    <row r="70" spans="1:2">
+      <c r="A70">
         <v>74</v>
       </c>
-      <c r="H71">
+      <c r="B70">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="7:8">
-      <c r="G72">
+    <row r="71" spans="1:2">
+      <c r="A71">
         <v>82</v>
       </c>
-      <c r="H72">
+      <c r="B71">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="7:8">
-      <c r="G73">
+    <row r="72" spans="1:2">
+      <c r="A72">
         <v>63</v>
       </c>
-      <c r="H73">
+      <c r="B72">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="7:8">
-      <c r="G74">
+    <row r="73" spans="1:2">
+      <c r="A73">
         <v>64</v>
       </c>
-      <c r="H74">
+      <c r="B73">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="7:8">
-      <c r="G75">
+    <row r="74" spans="1:2">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="H75">
+      <c r="B74">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="7:8">
-      <c r="G76">
+    <row r="75" spans="1:2">
+      <c r="A75">
         <v>69</v>
       </c>
-      <c r="H76">
+      <c r="B75">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="7:8">
-      <c r="G77">
+    <row r="76" spans="1:2">
+      <c r="A76">
         <v>87</v>
       </c>
-      <c r="H77">
+      <c r="B76">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="7:8">
-      <c r="G78">
+    <row r="77" spans="1:2">
+      <c r="A77">
         <v>68</v>
       </c>
-      <c r="H78">
+      <c r="B77">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="7:8">
-      <c r="G79">
+    <row r="78" spans="1:2">
+      <c r="A78">
         <v>81</v>
       </c>
-      <c r="H79">
+      <c r="B78">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="7:8">
-      <c r="G80">
+    <row r="79" spans="1:2">
+      <c r="A79">
         <v>73</v>
       </c>
-      <c r="H80">
+      <c r="B79">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="7:8">
-      <c r="G81">
+    <row r="80" spans="1:2">
+      <c r="A80">
         <v>83</v>
       </c>
-      <c r="H81">
+      <c r="B80">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="7:8">
-      <c r="G82">
+    <row r="81" spans="1:2">
+      <c r="A81">
         <v>73</v>
       </c>
-      <c r="H82">
+      <c r="B81">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="7:8">
-      <c r="G83">
+    <row r="82" spans="1:2">
+      <c r="A82">
         <v>80</v>
       </c>
-      <c r="H83">
+      <c r="B82">
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="7:8">
-      <c r="G84">
+    <row r="83" spans="1:2">
+      <c r="A83">
         <v>73</v>
       </c>
-      <c r="H84">
+      <c r="B83">
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="7:8">
-      <c r="G85">
+    <row r="84" spans="1:2">
+      <c r="A84">
         <v>73</v>
       </c>
-      <c r="H85">
+      <c r="B84">
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="7:8">
-      <c r="G86">
+    <row r="85" spans="1:2">
+      <c r="A85">
         <v>71</v>
       </c>
-      <c r="H86">
+      <c r="B85">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="7:8">
-      <c r="G87">
+    <row r="86" spans="1:2">
+      <c r="A86">
         <v>66</v>
       </c>
-      <c r="H87">
+      <c r="B86">
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="7:8">
-      <c r="G88">
+    <row r="87" spans="1:2">
+      <c r="A87">
         <v>78</v>
       </c>
-      <c r="H88">
+      <c r="B87">
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="7:8">
-      <c r="G89">
+    <row r="88" spans="1:2">
+      <c r="A88">
         <v>64</v>
       </c>
-      <c r="H89">
+      <c r="B88">
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="7:8">
-      <c r="G90">
+    <row r="89" spans="1:2">
+      <c r="A89">
         <v>74</v>
       </c>
-      <c r="H90">
+      <c r="B89">
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="7:8">
-      <c r="G91">
+    <row r="90" spans="1:2">
+      <c r="A90">
         <v>68</v>
       </c>
-      <c r="H91">
+      <c r="B90">
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="7:8">
-      <c r="G92">
+    <row r="91" spans="1:2">
+      <c r="A91">
         <v>67</v>
       </c>
-      <c r="H92">
+      <c r="B91">
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="7:8">
-      <c r="G93">
+    <row r="92" spans="1:2">
+      <c r="A92">
         <v>75</v>
       </c>
-      <c r="H93">
+      <c r="B92">
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="7:8">
-      <c r="G94">
+    <row r="93" spans="1:2">
+      <c r="A93">
         <v>75</v>
       </c>
-      <c r="H94">
+      <c r="B93">
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="7:8">
-      <c r="G95">
+    <row r="94" spans="1:2">
+      <c r="A94">
         <v>80</v>
       </c>
-      <c r="H95">
+      <c r="B94">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="7:8">
-      <c r="G96">
+    <row r="95" spans="1:2">
+      <c r="A95">
         <v>85</v>
       </c>
-      <c r="H96">
+      <c r="B95">
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="7:8">
-      <c r="G97">
+    <row r="96" spans="1:2">
+      <c r="A96">
         <v>74</v>
       </c>
-      <c r="H97">
+      <c r="B96">
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="7:8">
-      <c r="G98">
+    <row r="97" spans="1:2">
+      <c r="A97">
         <v>76</v>
       </c>
-      <c r="H98">
+      <c r="B97">
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="7:8">
-      <c r="G99">
+    <row r="98" spans="1:2">
+      <c r="A98">
         <v>80</v>
       </c>
-      <c r="H99">
+      <c r="B98">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="7:8">
-      <c r="G100">
+    <row r="99" spans="1:2">
+      <c r="A99">
         <v>77</v>
       </c>
-      <c r="H100">
+      <c r="B99">
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="7:8">
-      <c r="G101">
+    <row r="100" spans="1:2">
+      <c r="A100">
         <v>93</v>
       </c>
-      <c r="H101">
+      <c r="B100">
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="7:8">
-      <c r="G102">
+    <row r="101" spans="1:2">
+      <c r="A101">
         <v>70</v>
       </c>
-      <c r="H102">
+      <c r="B101">
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="7:8">
-      <c r="G103">
+    <row r="102" spans="1:2">
+      <c r="A102">
         <v>86</v>
       </c>
-      <c r="H103">
+      <c r="B102">
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="7:8">
-      <c r="G104">
+    <row r="103" spans="1:2">
+      <c r="A103">
         <v>80</v>
       </c>
-      <c r="H104">
+      <c r="B103">
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="7:8">
-      <c r="G105">
+    <row r="104" spans="1:2">
+      <c r="A104">
         <v>81</v>
       </c>
-      <c r="H105">
+      <c r="B104">
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="7:8">
-      <c r="G106">
+    <row r="105" spans="1:2">
+      <c r="A105">
         <v>83</v>
       </c>
-      <c r="H106">
+      <c r="B105">
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="7:8">
-      <c r="G107">
+    <row r="106" spans="1:2">
+      <c r="A106">
         <v>68</v>
       </c>
-      <c r="H107">
+      <c r="B106">
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="7:8">
-      <c r="G108">
+    <row r="107" spans="1:2">
+      <c r="A107">
         <v>60</v>
       </c>
-      <c r="H108">
+      <c r="B107">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="7:8">
-      <c r="G109">
+    <row r="108" spans="1:2">
+      <c r="A108">
         <v>85</v>
       </c>
-      <c r="H109">
+      <c r="B108">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="7:8">
-      <c r="G110">
+    <row r="109" spans="1:2">
+      <c r="A109">
         <v>64</v>
       </c>
-      <c r="H110">
+      <c r="B109">
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="7:8">
-      <c r="G111">
+    <row r="110" spans="1:2">
+      <c r="A110">
         <v>74</v>
       </c>
-      <c r="H111">
+      <c r="B110">
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="7:8">
-      <c r="G112">
+    <row r="111" spans="1:2">
+      <c r="A111">
         <v>82</v>
       </c>
-      <c r="H112">
+      <c r="B111">
         <v>72</v>
       </c>
     </row>
-    <row r="113" spans="7:8">
-      <c r="G113">
+    <row r="112" spans="1:2">
+      <c r="A112">
         <v>81</v>
       </c>
-      <c r="H113">
+      <c r="B112">
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="7:8">
-      <c r="G114">
+    <row r="113" spans="1:2">
+      <c r="A113">
         <v>77</v>
       </c>
-      <c r="H114">
+      <c r="B113">
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="7:8">
-      <c r="G115">
+    <row r="114" spans="1:2">
+      <c r="A114">
         <v>66</v>
       </c>
-      <c r="H115">
+      <c r="B114">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="7:8">
-      <c r="G116">
+    <row r="115" spans="1:2">
+      <c r="A115">
         <v>85</v>
       </c>
-      <c r="H116">
+      <c r="B115">
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="7:8">
-      <c r="G117">
+    <row r="116" spans="1:2">
+      <c r="A116">
         <v>75</v>
       </c>
-      <c r="H117">
+      <c r="B116">
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="7:8">
-      <c r="G118">
+    <row r="117" spans="1:2">
+      <c r="A117">
         <v>81</v>
       </c>
-      <c r="H118">
+      <c r="B117">
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="7:8">
-      <c r="G119">
+    <row r="118" spans="1:2">
+      <c r="A118">
         <v>69</v>
       </c>
-      <c r="H119">
+      <c r="B118">
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="7:8">
-      <c r="G120">
+    <row r="119" spans="1:2">
+      <c r="A119">
         <v>60</v>
       </c>
-      <c r="H120">
+      <c r="B119">
         <v>75</v>
       </c>
     </row>
-    <row r="121" spans="7:8">
-      <c r="G121">
+    <row r="120" spans="1:2">
+      <c r="A120">
         <v>83</v>
       </c>
-      <c r="H121">
+      <c r="B120">
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="7:8">
-      <c r="G122">
+    <row r="121" spans="1:2">
+      <c r="A121">
         <v>72</v>
       </c>
-      <c r="H122">
+      <c r="B121">
         <v>75</v>
       </c>
     </row>
